--- a/deployment/Omaha_Cal_Info_GS05MOAS-GL486_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GS05MOAS-GL486_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\# OOI_Asset_Management\GS_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="3900" windowWidth="25536" windowHeight="11400" tabRatio="377"/>
+    <workbookView xWindow="4740" yWindow="3900" windowWidth="25530" windowHeight="11400" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Ref Des</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>89°21.455' W</t>
+  </si>
+  <si>
+    <t>OL000135</t>
   </si>
 </sst>
 </file>
@@ -723,24 +726,25 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="35.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="35.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
@@ -778,7 +782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -797,7 +801,9 @@
       <c r="F2" s="7">
         <v>0.69097222222222221</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6">
+        <v>42358</v>
+      </c>
       <c r="H2" s="9" t="s">
         <v>33</v>
       </c>
@@ -820,11 +826,11 @@
         <v>-89.357583333333338</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
@@ -844,23 +850,23 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -886,7 +892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -915,7 +921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -944,7 +950,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -973,7 +979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1011,7 +1017,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1044,7 +1050,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1068,7 +1074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1077,7 +1083,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
@@ -1090,7 +1096,9 @@
       <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
       <c r="F11" s="8">
         <v>486</v>
       </c>
@@ -1099,7 +1107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>

--- a/deployment/Omaha_Cal_Info_GS05MOAS-GL486_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GS05MOAS-GL486_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="3900" windowWidth="25530" windowHeight="11400" tabRatio="377"/>
+    <workbookView xWindow="4740" yWindow="3900" windowWidth="25540" windowHeight="11400" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$104</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -479,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,7 +509,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -726,25 +721,25 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="35.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="35.5" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="42">
       <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
@@ -782,7 +777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -811,7 +806,7 @@
         <v>34</v>
       </c>
       <c r="J2" s="5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>25</v>
@@ -826,11 +821,11 @@
         <v>-89.357583333333338</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
@@ -853,20 +848,20 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="14" customFormat="1" ht="28">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -892,7 +887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -921,7 +916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -950,7 +945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -979,7 +974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1008,7 +1003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="2" customFormat="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1017,7 +1012,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="2" customFormat="1">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -1041,7 +1036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="2" customFormat="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1050,7 +1045,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="2" customFormat="1">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1074,7 +1069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="2" customFormat="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1083,7 +1078,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="2" customFormat="1">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
@@ -1107,7 +1102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="2" customFormat="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1118,7 +1113,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/deployment/Omaha_Cal_Info_GS05MOAS-GL486_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GS05MOAS-GL486_00001.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="3900" windowWidth="25540" windowHeight="11400" tabRatio="377"/>
@@ -90,18 +90,6 @@
     <t>No calibration coefficient</t>
   </si>
   <si>
-    <t>GS05MOAS-GL001-02-DOSTAM000</t>
-  </si>
-  <si>
-    <t>GS05MOAS-GL001-01-FLORDM000</t>
-  </si>
-  <si>
-    <t>GS05MOAS-GL001-04-CTDGVM000</t>
-  </si>
-  <si>
-    <t>GS05MOAS-GL001-00-ENG000000</t>
-  </si>
-  <si>
     <t>CC_scattering_angle</t>
   </si>
   <si>
@@ -148,6 +136,18 @@
   </si>
   <si>
     <t>OL000135</t>
+  </si>
+  <si>
+    <t>GS05MOAS-GL486-01-FLORDM000</t>
+  </si>
+  <si>
+    <t>GS05MOAS-GL486-02-DOSTAM000</t>
+  </si>
+  <si>
+    <t>GS05MOAS-GL486-04-CTDGVM000</t>
+  </si>
+  <si>
+    <t>GS05MOAS-GL486-00-ENG000000</t>
   </si>
 </sst>
 </file>
@@ -741,7 +741,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="42">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -779,10 +779,10 @@
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5">
         <v>486</v>
@@ -800,16 +800,16 @@
         <v>42358</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J2" s="5">
         <v>1000</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="10">
@@ -845,7 +845,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>14</v>
@@ -875,7 +875,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>10</v>
@@ -889,10 +889,10 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
         <v>486</v>
@@ -901,27 +901,27 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>3551</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2">
         <v>140</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
         <v>486</v>
@@ -930,27 +930,27 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2">
         <v>3551</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2">
         <v>700</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>486</v>
@@ -959,27 +959,27 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>3551</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H4" s="11">
         <v>1.0960000000000001</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>486</v>
@@ -988,19 +988,19 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2">
         <v>3551</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2">
         <v>3.9E-2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1">
@@ -1014,10 +1014,10 @@
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1">
       <c r="A7" s="8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" s="8">
         <v>486</v>
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F7" s="8">
         <v>323</v>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" s="8">
         <v>486</v>
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F9" s="8">
         <v>9174</v>
@@ -1080,10 +1080,10 @@
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1">
       <c r="A11" s="8" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" s="8">
         <v>486</v>
@@ -1092,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8">
         <v>486</v>
